--- a/level-3/hackerrank/phase-3-mathematics-2/hackerrank-phase-3-mathematics-2.xlsx
+++ b/level-3/hackerrank/phase-3-mathematics-2/hackerrank-phase-3-mathematics-2.xlsx
@@ -1,16 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C469575B-E1B1-429F-9F90-D1B6F584DE27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BE5E82-B57B-4666-82FE-259552602EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="level 3 - mathematics 2" sheetId="14" r:id="rId1"/>
+    <sheet name="mathematics-2" sheetId="14" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -624,12 +637,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -642,22 +655,13 @@
     <xf numFmtId="1" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -701,35 +705,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
@@ -1126,81 +1102,81 @@
   <cols>
     <col min="1" max="1" width="33.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
-    <col min="3" max="7" width="15.109375" style="10" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="10" customWidth="1"/>
+    <col min="3" max="7" width="15.109375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="9" customWidth="1"/>
     <col min="9" max="9" width="67.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="67.33203125" style="15" customWidth="1"/>
+    <col min="10" max="10" width="67.33203125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="13" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="17"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="17"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="6" t="e">
-        <f>AVERAGE(C4:C97)</f>
+        <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C97)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D3" s="6" t="e">
-        <f>AVERAGE(D4:D97)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E3" s="6" t="e">
-        <f>AVERAGE(E4:E97)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F3" s="6" t="e">
-        <f>AVERAGE(F4:F97)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G3" s="6" t="e">
-        <f>AVERAGE(G4:G97)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H3" s="6">
-        <f>AVERAGE(H4:H97)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I3" s="5">
@@ -1225,11 +1201,11 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="7">
-        <f>SUM(C4:G4)</f>
+        <f t="shared" ref="H4:H10" si="1">SUM(C4:G4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="10" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1240,17 +1216,17 @@
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="7">
-        <f>SUM(C5:G5)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1267,11 +1243,11 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="7">
-        <f>SUM(C6:G6)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1288,11 +1264,11 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="7">
-        <f>SUM(C7:G7)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1303,17 +1279,17 @@
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
       <c r="H8" s="7">
-        <f>SUM(C8:G8)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="13" t="s">
+      <c r="J8" s="10" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1330,11 +1306,11 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="7">
-        <f>SUM(C9:G9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="10" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1351,11 +1327,11 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="7">
-        <f>SUM(C10:G10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1366,17 +1342,17 @@
       <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="12">
-        <f t="shared" ref="H11:H16" si="0">SUM(C11:G11)</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="13" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="7">
+        <f t="shared" ref="H11:H16" si="2">SUM(C11:G11)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="10" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1387,17 +1363,17 @@
       <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="13" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="10" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1408,17 +1384,17 @@
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="13" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="10" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1429,17 +1405,17 @@
       <c r="B14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="13" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="10" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1450,17 +1426,17 @@
       <c r="B15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="13" t="s">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="10" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1471,17 +1447,17 @@
       <c r="B16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="13" t="s">
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="10" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1492,17 +1468,17 @@
       <c r="B17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="12">
-        <f t="shared" ref="H17:H52" si="1">SUM(C17:G17)</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="13" t="s">
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="7">
+        <f t="shared" ref="H17:H52" si="3">SUM(C17:G17)</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="10" t="s">
         <v>147</v>
       </c>
     </row>
@@ -1513,17 +1489,17 @@
       <c r="B18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="13" t="s">
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="10" t="s">
         <v>146</v>
       </c>
     </row>
@@ -1534,17 +1510,17 @@
       <c r="B19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="13" t="s">
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="10" t="s">
         <v>145</v>
       </c>
     </row>
@@ -1555,17 +1531,17 @@
       <c r="B20" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="11"/>
-      <c r="J20" s="13" t="s">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="10" t="s">
         <v>144</v>
       </c>
     </row>
@@ -1576,17 +1552,17 @@
       <c r="B21" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="11"/>
-      <c r="J21" s="13" t="s">
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="10" t="s">
         <v>143</v>
       </c>
     </row>
@@ -1597,17 +1573,17 @@
       <c r="B22" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="11"/>
-      <c r="J22" s="13" t="s">
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="10" t="s">
         <v>142</v>
       </c>
     </row>
@@ -1618,17 +1594,17 @@
       <c r="B23" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="11"/>
-      <c r="J23" s="13" t="s">
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="10" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1639,17 +1615,17 @@
       <c r="B24" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="11"/>
-      <c r="J24" s="13" t="s">
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="10" t="s">
         <v>140</v>
       </c>
     </row>
@@ -1660,17 +1636,17 @@
       <c r="B25" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="11"/>
-      <c r="J25" s="13" t="s">
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1681,17 +1657,17 @@
       <c r="B26" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="11"/>
-      <c r="J26" s="13" t="s">
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="10" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1702,17 +1678,17 @@
       <c r="B27" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="11"/>
-      <c r="J27" s="13" t="s">
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="10" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1723,17 +1699,17 @@
       <c r="B28" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="11"/>
-      <c r="J28" s="13" t="s">
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="10" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1744,17 +1720,17 @@
       <c r="B29" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="11"/>
-      <c r="J29" s="13" t="s">
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="2"/>
+      <c r="J29" s="10" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1765,17 +1741,17 @@
       <c r="B30" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="11"/>
-      <c r="J30" s="13" t="s">
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="2"/>
+      <c r="J30" s="10" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1786,17 +1762,17 @@
       <c r="B31" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="11"/>
-      <c r="J31" s="13" t="s">
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="J31" s="10" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1807,17 +1783,17 @@
       <c r="B32" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="11"/>
-      <c r="J32" s="13" t="s">
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="10" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1828,17 +1804,17 @@
       <c r="B33" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="11"/>
-      <c r="J33" s="13" t="s">
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="2"/>
+      <c r="J33" s="10" t="s">
         <v>132</v>
       </c>
     </row>
@@ -1849,17 +1825,17 @@
       <c r="B34" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="11"/>
-      <c r="J34" s="13" t="s">
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="10" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1870,17 +1846,17 @@
       <c r="B35" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="11"/>
-      <c r="J35" s="13" t="s">
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="10" t="s">
         <v>130</v>
       </c>
     </row>
@@ -1891,17 +1867,17 @@
       <c r="B36" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="11"/>
-      <c r="J36" s="13" t="s">
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="10" t="s">
         <v>129</v>
       </c>
     </row>
@@ -1912,17 +1888,17 @@
       <c r="B37" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I37" s="11"/>
-      <c r="J37" s="13" t="s">
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="10" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1933,17 +1909,17 @@
       <c r="B38" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I38" s="11"/>
-      <c r="J38" s="13" t="s">
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="2"/>
+      <c r="J38" s="10" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1954,17 +1930,17 @@
       <c r="B39" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I39" s="11"/>
-      <c r="J39" s="13" t="s">
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="2"/>
+      <c r="J39" s="10" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1975,17 +1951,17 @@
       <c r="B40" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I40" s="11"/>
-      <c r="J40" s="13" t="s">
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="2"/>
+      <c r="J40" s="10" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1996,17 +1972,17 @@
       <c r="B41" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="11"/>
-      <c r="J41" s="13" t="s">
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="10" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2017,17 +1993,17 @@
       <c r="B42" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I42" s="11"/>
-      <c r="J42" s="13" t="s">
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="10" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2038,17 +2014,17 @@
       <c r="B43" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="11"/>
-      <c r="J43" s="13" t="s">
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="2"/>
+      <c r="J43" s="10" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2059,17 +2035,17 @@
       <c r="B44" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="11"/>
-      <c r="J44" s="13" t="s">
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="2"/>
+      <c r="J44" s="10" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2080,17 +2056,17 @@
       <c r="B45" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="11"/>
-      <c r="J45" s="13" t="s">
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="2"/>
+      <c r="J45" s="10" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2101,17 +2077,17 @@
       <c r="B46" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="11"/>
-      <c r="J46" s="13" t="s">
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="2"/>
+      <c r="J46" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2122,16 +2098,16 @@
       <c r="B47" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J47" s="14" t="s">
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="11" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2142,16 +2118,16 @@
       <c r="B48" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J48" s="14" t="s">
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="11" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2162,16 +2138,16 @@
       <c r="B49" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J49" s="14" t="s">
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="11" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2182,16 +2158,16 @@
       <c r="B50" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J50" s="14" t="s">
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J50" s="11" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2202,16 +2178,16 @@
       <c r="B51" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J51" s="14" t="s">
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J51" s="11" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2222,16 +2198,16 @@
       <c r="B52" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J52" s="14" t="s">
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="11" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2242,16 +2218,16 @@
       <c r="B53" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
       <c r="H53" s="7">
         <f>SUM(C53:G53)</f>
         <v>0</v>
       </c>
-      <c r="J53" s="14" t="s">
+      <c r="J53" s="11" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2271,7 +2247,7 @@
         <f>SUM(C54:G54)</f>
         <v>0</v>
       </c>
-      <c r="J54" s="14" t="s">
+      <c r="J54" s="11" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2282,16 +2258,16 @@
       <c r="B55" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
       <c r="H55" s="7">
         <f>SUM(C55:G55)</f>
         <v>0</v>
       </c>
-      <c r="J55" s="14" t="s">
+      <c r="J55" s="11" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2302,16 +2278,16 @@
       <c r="B56" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
       <c r="H56" s="7">
         <f>SUM(C56:G56)</f>
         <v>0</v>
       </c>
-      <c r="J56" s="14" t="s">
+      <c r="J56" s="11" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2322,16 +2298,16 @@
       <c r="B57" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="12">
-        <f t="shared" ref="H57:H76" si="2">SUM(C57:G57)</f>
-        <v>0</v>
-      </c>
-      <c r="J57" s="14" t="s">
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="7">
+        <f t="shared" ref="H57:H76" si="4">SUM(C57:G57)</f>
+        <v>0</v>
+      </c>
+      <c r="J57" s="11" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2342,16 +2318,16 @@
       <c r="B58" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J58" s="14" t="s">
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="11" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2362,16 +2338,16 @@
       <c r="B59" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J59" s="14" t="s">
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J59" s="11" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2382,16 +2358,16 @@
       <c r="B60" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J60" s="14" t="s">
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J60" s="11" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2402,16 +2378,16 @@
       <c r="B61" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J61" s="14" t="s">
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J61" s="11" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2422,16 +2398,16 @@
       <c r="B62" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J62" s="14" t="s">
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J62" s="11" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2442,16 +2418,16 @@
       <c r="B63" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J63" s="14" t="s">
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J63" s="11" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2462,16 +2438,16 @@
       <c r="B64" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J64" s="14" t="s">
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J64" s="11" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2482,16 +2458,16 @@
       <c r="B65" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J65" s="14" t="s">
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J65" s="11" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2502,16 +2478,16 @@
       <c r="B66" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J66" s="14" t="s">
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J66" s="11" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2522,16 +2498,16 @@
       <c r="B67" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J67" s="14" t="s">
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J67" s="11" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2542,16 +2518,16 @@
       <c r="B68" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J68" s="14" t="s">
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J68" s="11" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2562,16 +2538,16 @@
       <c r="B69" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J69" s="14" t="s">
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J69" s="11" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2582,16 +2558,16 @@
       <c r="B70" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J70" s="14" t="s">
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J70" s="11" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2602,16 +2578,16 @@
       <c r="B71" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J71" s="14" t="s">
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J71" s="11" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2622,16 +2598,16 @@
       <c r="B72" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J72" s="14" t="s">
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J72" s="11" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2642,16 +2618,16 @@
       <c r="B73" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J73" s="14" t="s">
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J73" s="11" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2662,16 +2638,16 @@
       <c r="B74" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J74" s="14" t="s">
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J74" s="11" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2682,16 +2658,16 @@
       <c r="B75" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J75" s="14" t="s">
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J75" s="11" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2702,16 +2678,16 @@
       <c r="B76" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J76" s="14" t="s">
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J76" s="11" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2722,16 +2698,16 @@
       <c r="B77" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="12">
-        <f>SUM(C77:G77)</f>
-        <v>0</v>
-      </c>
-      <c r="J77" s="14" t="s">
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="7">
+        <f t="shared" ref="H77:H97" si="5">SUM(C77:G77)</f>
+        <v>0</v>
+      </c>
+      <c r="J77" s="11" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2742,16 +2718,16 @@
       <c r="B78" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="12">
-        <f>SUM(C78:G78)</f>
-        <v>0</v>
-      </c>
-      <c r="J78" s="14" t="s">
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J78" s="11" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2762,16 +2738,16 @@
       <c r="B79" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="12">
-        <f>SUM(C79:G79)</f>
-        <v>0</v>
-      </c>
-      <c r="J79" s="14" t="s">
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J79" s="11" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2782,16 +2758,16 @@
       <c r="B80" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="12">
-        <f>SUM(C80:G80)</f>
-        <v>0</v>
-      </c>
-      <c r="J80" s="14" t="s">
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J80" s="11" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2802,16 +2778,16 @@
       <c r="B81" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="12">
-        <f>SUM(C81:G81)</f>
-        <v>0</v>
-      </c>
-      <c r="J81" s="14" t="s">
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J81" s="11" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2822,16 +2798,16 @@
       <c r="B82" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="12">
-        <f>SUM(C82:G82)</f>
-        <v>0</v>
-      </c>
-      <c r="J82" s="14" t="s">
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J82" s="11" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2842,16 +2818,16 @@
       <c r="B83" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="12">
-        <f>SUM(C83:G83)</f>
-        <v>0</v>
-      </c>
-      <c r="J83" s="14" t="s">
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J83" s="11" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2862,16 +2838,16 @@
       <c r="B84" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="12">
-        <f>SUM(C84:G84)</f>
-        <v>0</v>
-      </c>
-      <c r="J84" s="14" t="s">
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J84" s="11" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2882,16 +2858,16 @@
       <c r="B85" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="12">
-        <f>SUM(C85:G85)</f>
-        <v>0</v>
-      </c>
-      <c r="J85" s="14" t="s">
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J85" s="11" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2902,16 +2878,16 @@
       <c r="B86" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="12">
-        <f>SUM(C86:G86)</f>
-        <v>0</v>
-      </c>
-      <c r="J86" s="14" t="s">
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J86" s="11" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2922,16 +2898,16 @@
       <c r="B87" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
-      <c r="H87" s="12">
-        <f>SUM(C87:G87)</f>
-        <v>0</v>
-      </c>
-      <c r="J87" s="14" t="s">
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J87" s="11" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2942,16 +2918,16 @@
       <c r="B88" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9"/>
-      <c r="H88" s="12">
-        <f>SUM(C88:G88)</f>
-        <v>0</v>
-      </c>
-      <c r="J88" s="14" t="s">
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J88" s="11" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2962,16 +2938,16 @@
       <c r="B89" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
       <c r="H89" s="7">
-        <f>SUM(C89:G89)</f>
-        <v>0</v>
-      </c>
-      <c r="J89" s="14" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J89" s="11" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2988,10 +2964,10 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c r="H90" s="7">
-        <f>SUM(C90:G90)</f>
-        <v>0</v>
-      </c>
-      <c r="J90" s="14" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J90" s="11" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3002,16 +2978,16 @@
       <c r="B91" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
       <c r="H91" s="7">
-        <f>SUM(C91:G91)</f>
-        <v>0</v>
-      </c>
-      <c r="J91" s="14" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J91" s="11" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3022,16 +2998,16 @@
       <c r="B92" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
       <c r="H92" s="7">
-        <f>SUM(C92:G92)</f>
-        <v>0</v>
-      </c>
-      <c r="J92" s="14" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J92" s="11" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3048,10 +3024,10 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c r="H93" s="7">
-        <f>SUM(C93:G93)</f>
-        <v>0</v>
-      </c>
-      <c r="J93" s="14" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J93" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3062,16 +3038,16 @@
       <c r="B94" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C94" s="9"/>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="9"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
       <c r="H94" s="7">
-        <f>SUM(C94:G94)</f>
-        <v>0</v>
-      </c>
-      <c r="J94" s="14" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J94" s="11" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3082,16 +3058,16 @@
       <c r="B95" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
       <c r="H95" s="7">
-        <f>SUM(C95:G95)</f>
-        <v>0</v>
-      </c>
-      <c r="J95" s="14" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J95" s="11" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3102,16 +3078,16 @@
       <c r="B96" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
       <c r="H96" s="7">
-        <f>SUM(C96:G96)</f>
-        <v>0</v>
-      </c>
-      <c r="J96" s="14" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J96" s="11" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3128,10 +3104,10 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c r="H97" s="7">
-        <f>SUM(C97:G97)</f>
-        <v>0</v>
-      </c>
-      <c r="J97" s="14" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J97" s="11" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3142,16 +3118,16 @@
       <c r="B98" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9"/>
-      <c r="H98" s="12">
-        <f t="shared" ref="H98:H105" si="3">SUM(C98:G98)</f>
-        <v>0</v>
-      </c>
-      <c r="J98" s="14" t="s">
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="7">
+        <f t="shared" ref="H98:H105" si="6">SUM(C98:G98)</f>
+        <v>0</v>
+      </c>
+      <c r="J98" s="11" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3162,16 +3138,16 @@
       <c r="B99" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="9"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J99" s="14" t="s">
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J99" s="11" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3182,16 +3158,16 @@
       <c r="B100" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9"/>
-      <c r="F100" s="9"/>
-      <c r="G100" s="9"/>
-      <c r="H100" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J100" s="14" t="s">
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c r="H100" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J100" s="11" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3202,16 +3178,16 @@
       <c r="B101" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
-      <c r="E101" s="9"/>
-      <c r="F101" s="9"/>
-      <c r="G101" s="9"/>
-      <c r="H101" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J101" s="14" t="s">
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c r="H101" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J101" s="11" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3222,16 +3198,16 @@
       <c r="B102" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
-      <c r="H102" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J102" s="14" t="s">
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J102" s="11" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3242,16 +3218,16 @@
       <c r="B103" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="9"/>
-      <c r="G103" s="9"/>
-      <c r="H103" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J103" s="14" t="s">
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c r="H103" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J103" s="11" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3262,16 +3238,16 @@
       <c r="B104" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C104" s="9"/>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="9"/>
-      <c r="G104" s="9"/>
-      <c r="H104" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J104" s="14" t="s">
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J104" s="11" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3282,16 +3258,16 @@
       <c r="B105" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C105" s="9"/>
-      <c r="D105" s="9"/>
-      <c r="E105" s="9"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="9"/>
-      <c r="H105" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J105" s="14" t="s">
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J105" s="11" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3302,16 +3278,16 @@
       <c r="B106" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C106" s="9"/>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
-      <c r="H106" s="12">
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c r="H106" s="7">
         <f>SUM(C106:G106)</f>
         <v>0</v>
       </c>
-      <c r="J106" s="14" t="s">
+      <c r="J106" s="11" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3322,16 +3298,16 @@
       <c r="B107" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="12">
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c r="H107" s="7">
         <f>SUM(C107:G107)</f>
         <v>0</v>
       </c>
-      <c r="J107" s="14" t="s">
+      <c r="J107" s="11" t="s">
         <v>81</v>
       </c>
     </row>
@@ -3342,16 +3318,16 @@
       <c r="B108" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="9"/>
-      <c r="H108" s="12">
-        <f t="shared" ref="H108:H132" si="4">SUM(C108:G108)</f>
-        <v>0</v>
-      </c>
-      <c r="J108" s="14" t="s">
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="7">
+        <f t="shared" ref="H108:H132" si="7">SUM(C108:G108)</f>
+        <v>0</v>
+      </c>
+      <c r="J108" s="11" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3362,16 +3338,16 @@
       <c r="B109" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="9"/>
-      <c r="H109" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J109" s="14" t="s">
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J109" s="11" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3382,16 +3358,16 @@
       <c r="B110" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="9"/>
-      <c r="G110" s="9"/>
-      <c r="H110" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J110" s="14" t="s">
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J110" s="11" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3402,16 +3378,16 @@
       <c r="B111" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J111" s="14" t="s">
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J111" s="11" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3422,16 +3398,16 @@
       <c r="B112" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="9"/>
-      <c r="H112" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J112" s="14" t="s">
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J112" s="11" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3442,16 +3418,16 @@
       <c r="B113" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C113" s="9"/>
-      <c r="D113" s="9"/>
-      <c r="E113" s="9"/>
-      <c r="F113" s="9"/>
-      <c r="G113" s="9"/>
-      <c r="H113" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J113" s="14" t="s">
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J113" s="11" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3462,16 +3438,16 @@
       <c r="B114" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="9"/>
-      <c r="H114" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J114" s="14" t="s">
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c r="H114" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J114" s="11" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3482,16 +3458,16 @@
       <c r="B115" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C115" s="9"/>
-      <c r="D115" s="9"/>
-      <c r="E115" s="9"/>
-      <c r="F115" s="9"/>
-      <c r="G115" s="9"/>
-      <c r="H115" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J115" s="14" t="s">
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c r="H115" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J115" s="11" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3502,16 +3478,16 @@
       <c r="B116" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C116" s="9"/>
-      <c r="D116" s="9"/>
-      <c r="E116" s="9"/>
-      <c r="F116" s="9"/>
-      <c r="G116" s="9"/>
-      <c r="H116" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J116" s="14" t="s">
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J116" s="11" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3522,16 +3498,16 @@
       <c r="B117" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C117" s="9"/>
-      <c r="D117" s="9"/>
-      <c r="E117" s="9"/>
-      <c r="F117" s="9"/>
-      <c r="G117" s="9"/>
-      <c r="H117" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J117" s="14" t="s">
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c r="H117" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J117" s="11" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3542,16 +3518,16 @@
       <c r="B118" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C118" s="9"/>
-      <c r="D118" s="9"/>
-      <c r="E118" s="9"/>
-      <c r="F118" s="9"/>
-      <c r="G118" s="9"/>
-      <c r="H118" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J118" s="14" t="s">
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c r="H118" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J118" s="11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3562,16 +3538,16 @@
       <c r="B119" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C119" s="9"/>
-      <c r="D119" s="9"/>
-      <c r="E119" s="9"/>
-      <c r="F119" s="9"/>
-      <c r="G119" s="9"/>
-      <c r="H119" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J119" s="14" t="s">
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c r="H119" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J119" s="11" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3582,16 +3558,16 @@
       <c r="B120" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C120" s="9"/>
-      <c r="D120" s="9"/>
-      <c r="E120" s="9"/>
-      <c r="F120" s="9"/>
-      <c r="G120" s="9"/>
-      <c r="H120" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J120" s="14" t="s">
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c r="H120" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J120" s="11" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3602,16 +3578,16 @@
       <c r="B121" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C121" s="9"/>
-      <c r="D121" s="9"/>
-      <c r="E121" s="9"/>
-      <c r="F121" s="9"/>
-      <c r="G121" s="9"/>
-      <c r="H121" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J121" s="14" t="s">
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J121" s="11" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3622,16 +3598,16 @@
       <c r="B122" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C122" s="9"/>
-      <c r="D122" s="9"/>
-      <c r="E122" s="9"/>
-      <c r="F122" s="9"/>
-      <c r="G122" s="9"/>
-      <c r="H122" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J122" s="14" t="s">
+      <c r="C122" s="8"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c r="H122" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J122" s="11" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3642,16 +3618,16 @@
       <c r="B123" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C123" s="9"/>
-      <c r="D123" s="9"/>
-      <c r="E123" s="9"/>
-      <c r="F123" s="9"/>
-      <c r="G123" s="9"/>
-      <c r="H123" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J123" s="14" t="s">
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J123" s="11" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3662,16 +3638,16 @@
       <c r="B124" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C124" s="9"/>
-      <c r="D124" s="9"/>
-      <c r="E124" s="9"/>
-      <c r="F124" s="9"/>
-      <c r="G124" s="9"/>
-      <c r="H124" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J124" s="14" t="s">
+      <c r="C124" s="8"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J124" s="11" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3682,16 +3658,16 @@
       <c r="B125" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C125" s="9"/>
-      <c r="D125" s="9"/>
-      <c r="E125" s="9"/>
-      <c r="F125" s="9"/>
-      <c r="G125" s="9"/>
-      <c r="H125" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J125" s="14" t="s">
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c r="H125" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J125" s="11" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3702,16 +3678,16 @@
       <c r="B126" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C126" s="9"/>
-      <c r="D126" s="9"/>
-      <c r="E126" s="9"/>
-      <c r="F126" s="9"/>
-      <c r="G126" s="9"/>
-      <c r="H126" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J126" s="14" t="s">
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c r="H126" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J126" s="11" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3722,16 +3698,16 @@
       <c r="B127" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C127" s="9"/>
-      <c r="D127" s="9"/>
-      <c r="E127" s="9"/>
-      <c r="F127" s="9"/>
-      <c r="G127" s="9"/>
-      <c r="H127" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J127" s="14" t="s">
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c r="H127" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J127" s="11" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3742,16 +3718,16 @@
       <c r="B128" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C128" s="9"/>
-      <c r="D128" s="9"/>
-      <c r="E128" s="9"/>
-      <c r="F128" s="9"/>
-      <c r="G128" s="9"/>
-      <c r="H128" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J128" s="14" t="s">
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c r="H128" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J128" s="11" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3762,16 +3738,16 @@
       <c r="B129" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C129" s="9"/>
-      <c r="D129" s="9"/>
-      <c r="E129" s="9"/>
-      <c r="F129" s="9"/>
-      <c r="G129" s="9"/>
-      <c r="H129" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J129" s="14" t="s">
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c r="H129" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J129" s="11" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3782,16 +3758,16 @@
       <c r="B130" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C130" s="9"/>
-      <c r="D130" s="9"/>
-      <c r="E130" s="9"/>
-      <c r="F130" s="9"/>
-      <c r="G130" s="9"/>
-      <c r="H130" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J130" s="14" t="s">
+      <c r="C130" s="8"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c r="H130" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J130" s="11" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3802,16 +3778,16 @@
       <c r="B131" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C131" s="9"/>
-      <c r="D131" s="9"/>
-      <c r="E131" s="9"/>
-      <c r="F131" s="9"/>
-      <c r="G131" s="9"/>
-      <c r="H131" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J131" s="14" t="s">
+      <c r="C131" s="8"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c r="H131" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J131" s="11" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3822,16 +3798,16 @@
       <c r="B132" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C132" s="9"/>
-      <c r="D132" s="9"/>
-      <c r="E132" s="9"/>
-      <c r="F132" s="9"/>
-      <c r="G132" s="9"/>
-      <c r="H132" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J132" s="14" t="s">
+      <c r="C132" s="8"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c r="H132" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J132" s="11" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3849,17 +3825,17 @@
     <mergeCell ref="H1:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="J1 J7:J10 A1">
-    <cfRule type="cellIs" dxfId="10" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="37" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="7" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:I10">
-    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/level-3/hackerrank/phase-3-mathematics-2/hackerrank-phase-3-mathematics-2.xlsx
+++ b/level-3/hackerrank/phase-3-mathematics-2/hackerrank-phase-3-mathematics-2.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BE5E82-B57B-4666-82FE-259552602EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99043FD3-6B75-4433-A020-B6726DBCE513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="mathematics-2" sheetId="14" r:id="rId1"/>
+    <sheet name="hackerrank mathematics-2" sheetId="14" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1156,27 +1156,27 @@
       <c r="A3" s="18"/>
       <c r="B3" s="14"/>
       <c r="C3" s="6" t="e">
-        <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C97)</f>
+        <f>AVERAGE(C4:C197)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D3" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(D4:D197)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E3" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(E4:E197)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F3" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(F4:F197)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G3" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(G4:G197)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H3" s="6">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(H4:H197)</f>
         <v>0</v>
       </c>
       <c r="I3" s="5">
@@ -1201,7 +1201,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="7">
-        <f t="shared" ref="H4:H10" si="1">SUM(C4:G4)</f>
+        <f t="shared" ref="H4:H10" si="0">SUM(C4:G4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="2"/>
@@ -1222,7 +1222,7 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5" s="2"/>
@@ -1243,7 +1243,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I6" s="2"/>
@@ -1264,7 +1264,7 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I7" s="2"/>
@@ -1285,7 +1285,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I8" s="2"/>
@@ -1306,7 +1306,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I9" s="2"/>
@@ -1327,7 +1327,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I10" s="2"/>
@@ -1348,7 +1348,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="7">
-        <f t="shared" ref="H11:H16" si="2">SUM(C11:G11)</f>
+        <f t="shared" ref="H11:H16" si="1">SUM(C11:G11)</f>
         <v>0</v>
       </c>
       <c r="I11" s="2"/>
@@ -1369,7 +1369,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I12" s="2"/>
@@ -1390,7 +1390,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I13" s="2"/>
@@ -1411,7 +1411,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I14" s="2"/>
@@ -1432,7 +1432,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I15" s="2"/>
@@ -1453,7 +1453,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I16" s="2"/>
@@ -1474,7 +1474,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="7">
-        <f t="shared" ref="H17:H52" si="3">SUM(C17:G17)</f>
+        <f t="shared" ref="H17:H52" si="2">SUM(C17:G17)</f>
         <v>0</v>
       </c>
       <c r="I17" s="2"/>
@@ -1495,7 +1495,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I18" s="2"/>
@@ -1516,7 +1516,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I19" s="2"/>
@@ -1537,7 +1537,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I20" s="2"/>
@@ -1558,7 +1558,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I21" s="2"/>
@@ -1579,7 +1579,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I22" s="2"/>
@@ -1600,7 +1600,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I23" s="2"/>
@@ -1621,7 +1621,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I24" s="2"/>
@@ -1642,7 +1642,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I25" s="2"/>
@@ -1663,7 +1663,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I26" s="2"/>
@@ -1684,7 +1684,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I27" s="2"/>
@@ -1705,7 +1705,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I28" s="2"/>
@@ -1726,7 +1726,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I29" s="2"/>
@@ -1747,7 +1747,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I30" s="2"/>
@@ -1768,7 +1768,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I31" s="2"/>
@@ -1789,7 +1789,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I32" s="2"/>
@@ -1810,7 +1810,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I33" s="2"/>
@@ -1831,7 +1831,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I34" s="2"/>
@@ -1852,7 +1852,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I35" s="2"/>
@@ -1873,7 +1873,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I36" s="2"/>
@@ -1894,7 +1894,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I37" s="2"/>
@@ -1915,7 +1915,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I38" s="2"/>
@@ -1936,7 +1936,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I39" s="2"/>
@@ -1957,7 +1957,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I40" s="2"/>
@@ -1978,7 +1978,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I41" s="2"/>
@@ -1999,7 +1999,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I42" s="2"/>
@@ -2020,7 +2020,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I43" s="2"/>
@@ -2041,7 +2041,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I44" s="2"/>
@@ -2062,7 +2062,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I45" s="2"/>
@@ -2083,7 +2083,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I46" s="2"/>
@@ -2104,7 +2104,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J47" s="11" t="s">
@@ -2124,7 +2124,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J48" s="11" t="s">
@@ -2144,7 +2144,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J49" s="11" t="s">
@@ -2164,7 +2164,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J50" s="11" t="s">
@@ -2184,7 +2184,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J51" s="11" t="s">
@@ -2204,7 +2204,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J52" s="11" t="s">
@@ -2304,7 +2304,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="7">
-        <f t="shared" ref="H57:H76" si="4">SUM(C57:G57)</f>
+        <f t="shared" ref="H57:H76" si="3">SUM(C57:G57)</f>
         <v>0</v>
       </c>
       <c r="J57" s="11" t="s">
@@ -2324,7 +2324,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c r="H58" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J58" s="11" t="s">
@@ -2344,7 +2344,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c r="H59" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J59" s="11" t="s">
@@ -2364,7 +2364,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c r="H60" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J60" s="11" t="s">
@@ -2384,7 +2384,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c r="H61" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J61" s="11" t="s">
@@ -2404,7 +2404,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="H62" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J62" s="11" t="s">
@@ -2424,7 +2424,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c r="H63" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J63" s="11" t="s">
@@ -2444,7 +2444,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J64" s="11" t="s">
@@ -2464,7 +2464,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c r="H65" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J65" s="11" t="s">
@@ -2484,7 +2484,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c r="H66" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J66" s="11" t="s">
@@ -2504,7 +2504,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J67" s="11" t="s">
@@ -2524,7 +2524,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c r="H68" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J68" s="11" t="s">
@@ -2544,7 +2544,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c r="H69" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J69" s="11" t="s">
@@ -2564,7 +2564,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J70" s="11" t="s">
@@ -2584,7 +2584,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="H71" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J71" s="11" t="s">
@@ -2604,7 +2604,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c r="H72" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J72" s="11" t="s">
@@ -2624,7 +2624,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c r="H73" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J73" s="11" t="s">
@@ -2644,7 +2644,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c r="H74" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J74" s="11" t="s">
@@ -2664,7 +2664,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c r="H75" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J75" s="11" t="s">
@@ -2684,7 +2684,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c r="H76" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J76" s="11" t="s">
@@ -2704,7 +2704,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c r="H77" s="7">
-        <f t="shared" ref="H77:H97" si="5">SUM(C77:G77)</f>
+        <f t="shared" ref="H77:H97" si="4">SUM(C77:G77)</f>
         <v>0</v>
       </c>
       <c r="J77" s="11" t="s">
@@ -2724,7 +2724,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c r="H78" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J78" s="11" t="s">
@@ -2744,7 +2744,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c r="H79" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J79" s="11" t="s">
@@ -2764,7 +2764,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c r="H80" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J80" s="11" t="s">
@@ -2784,7 +2784,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c r="H81" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J81" s="11" t="s">
@@ -2804,7 +2804,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c r="H82" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J82" s="11" t="s">
@@ -2824,7 +2824,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c r="H83" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J83" s="11" t="s">
@@ -2844,7 +2844,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c r="H84" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J84" s="11" t="s">
@@ -2864,7 +2864,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c r="H85" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J85" s="11" t="s">
@@ -2884,7 +2884,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c r="H86" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J86" s="11" t="s">
@@ -2904,7 +2904,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c r="H87" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J87" s="11" t="s">
@@ -2924,7 +2924,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c r="H88" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J88" s="11" t="s">
@@ -2944,7 +2944,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c r="H89" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J89" s="11" t="s">
@@ -2964,7 +2964,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c r="H90" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J90" s="11" t="s">
@@ -2984,7 +2984,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c r="H91" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J91" s="11" t="s">
@@ -3004,7 +3004,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c r="H92" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J92" s="11" t="s">
@@ -3024,7 +3024,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c r="H93" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J93" s="11" t="s">
@@ -3044,7 +3044,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c r="H94" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J94" s="11" t="s">
@@ -3064,7 +3064,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c r="H95" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J95" s="11" t="s">
@@ -3084,7 +3084,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c r="H96" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J96" s="11" t="s">
@@ -3104,7 +3104,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c r="H97" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J97" s="11" t="s">
@@ -3124,7 +3124,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c r="H98" s="7">
-        <f t="shared" ref="H98:H105" si="6">SUM(C98:G98)</f>
+        <f t="shared" ref="H98:H105" si="5">SUM(C98:G98)</f>
         <v>0</v>
       </c>
       <c r="J98" s="11" t="s">
@@ -3144,7 +3144,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c r="H99" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J99" s="11" t="s">
@@ -3164,7 +3164,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c r="H100" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J100" s="11" t="s">
@@ -3184,7 +3184,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c r="H101" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J101" s="11" t="s">
@@ -3204,7 +3204,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c r="H102" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J102" s="11" t="s">
@@ -3224,7 +3224,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c r="H103" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J103" s="11" t="s">
@@ -3244,7 +3244,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c r="H104" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J104" s="11" t="s">
@@ -3264,7 +3264,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c r="H105" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J105" s="11" t="s">
@@ -3324,7 +3324,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c r="H108" s="7">
-        <f t="shared" ref="H108:H132" si="7">SUM(C108:G108)</f>
+        <f t="shared" ref="H108:H132" si="6">SUM(C108:G108)</f>
         <v>0</v>
       </c>
       <c r="J108" s="11" t="s">
@@ -3344,7 +3344,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c r="H109" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J109" s="11" t="s">
@@ -3364,7 +3364,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c r="H110" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J110" s="11" t="s">
@@ -3384,7 +3384,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c r="H111" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J111" s="11" t="s">
@@ -3404,7 +3404,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c r="H112" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J112" s="11" t="s">
@@ -3424,7 +3424,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c r="H113" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J113" s="11" t="s">
@@ -3444,7 +3444,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c r="H114" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J114" s="11" t="s">
@@ -3464,7 +3464,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c r="H115" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J115" s="11" t="s">
@@ -3484,7 +3484,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c r="H116" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J116" s="11" t="s">
@@ -3504,7 +3504,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c r="H117" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J117" s="11" t="s">
@@ -3524,7 +3524,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c r="H118" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J118" s="11" t="s">
@@ -3544,7 +3544,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c r="H119" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J119" s="11" t="s">
@@ -3564,7 +3564,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c r="H120" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J120" s="11" t="s">
@@ -3584,7 +3584,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c r="H121" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J121" s="11" t="s">
@@ -3604,7 +3604,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c r="H122" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J122" s="11" t="s">
@@ -3624,7 +3624,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c r="H123" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J123" s="11" t="s">
@@ -3644,7 +3644,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c r="H124" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J124" s="11" t="s">
@@ -3664,7 +3664,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c r="H125" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J125" s="11" t="s">
@@ -3684,7 +3684,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c r="H126" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J126" s="11" t="s">
@@ -3704,7 +3704,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c r="H127" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J127" s="11" t="s">
@@ -3724,7 +3724,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c r="H128" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J128" s="11" t="s">
@@ -3744,7 +3744,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c r="H129" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J129" s="11" t="s">
@@ -3764,7 +3764,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c r="H130" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J130" s="11" t="s">
@@ -3784,7 +3784,7 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c r="H131" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J131" s="11" t="s">
@@ -3804,7 +3804,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c r="H132" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J132" s="11" t="s">
@@ -3824,41 +3824,6 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="J1 J7:J10 A1">
-    <cfRule type="cellIs" dxfId="6" priority="37" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="5" priority="15" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7:I10">
-    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14:J16">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14:I16">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="J4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="J5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
